--- a/data/georgia_census/kakheti/dedofliswyaro/population_total.xlsx
+++ b/data/georgia_census/kakheti/dedofliswyaro/population_total.xlsx
@@ -1350,13 +1350,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79688952-BF42-4F15-8915-8E297AEEF3D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EE0B88-A126-425C-A75E-20009DC4AB78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7557BBA-2B74-4D2E-9C77-A86342FED8DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7024B51-7CA6-4124-9738-AA8E076EB545}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB1FFA7-4334-4533-A45C-EED7567F803E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033B606E-8E31-4F50-B26D-4448D6E70D92}"/>
 </file>